--- a/results/mp/tinybert/dilemma/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/168/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,123 +40,120 @@
     <t>name</t>
   </si>
   <si>
+    <t>uncomfortable</t>
+  </si>
+  <si>
     <t>horrible</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
+    <t>terrifying</t>
+  </si>
+  <si>
     <t>worst</t>
   </si>
   <si>
-    <t>terrifying</t>
-  </si>
-  <si>
     <t>negative</t>
   </si>
   <si>
-    <t>uncomfortable</t>
-  </si>
-  <si>
     <t>evil</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>worse</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
     <t>dangerous</t>
   </si>
   <si>
+    <t>stupid</t>
+  </si>
+  <si>
+    <t>dumb</t>
+  </si>
+  <si>
     <t>wrong</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>insane</t>
-  </si>
-  <si>
-    <t>boring</t>
-  </si>
-  <si>
-    <t>guilty</t>
+    <t>scary</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>frightening</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
+    <t>destroying</t>
+  </si>
+  <si>
+    <t>fucking</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>serious</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
+    <t>seriously</t>
+  </si>
+  <si>
+    <t>shocked</t>
+  </si>
+  <si>
+    <t>crazy</t>
+  </si>
+  <si>
     <t>shocking</t>
   </si>
   <si>
-    <t>addicted</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>scary</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>destroying</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>weird</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>stupid</t>
-  </si>
-  <si>
-    <t>sick</t>
-  </si>
-  <si>
-    <t>frightening</t>
-  </si>
-  <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>seriously</t>
-  </si>
-  <si>
-    <t>shocked</t>
-  </si>
-  <si>
-    <t>behind</t>
+    <t>fucked</t>
   </si>
   <si>
     <t>dark</t>
   </si>
   <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>fucked</t>
-  </si>
-  <si>
-    <t>serious</t>
-  </si>
-  <si>
     <t>less</t>
   </si>
   <si>
-    <t>false</t>
-  </si>
-  <si>
     <t>fake</t>
   </si>
   <si>
-    <t>black</t>
-  </si>
-  <si>
     <t>excellent</t>
   </si>
   <si>
@@ -178,55 +175,73 @@
     <t>happy</t>
   </si>
   <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>thanks</t>
   </si>
   <si>
+    <t>okay</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
+    <t>worth</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>highly</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
     <t>many</t>
   </si>
   <si>
-    <t>worth</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>ever</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>social</t>
+  </si>
+  <si>
+    <t>documentary</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>social</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>true</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>twitter</t>
   </si>
   <si>
     <t>netflix</t>
@@ -235,13 +250,7 @@
     <t>dilemma</t>
   </si>
   <si>
-    <t>really</t>
-  </si>
-  <si>
     <t>media</t>
-  </si>
-  <si>
-    <t>twitter</t>
   </si>
   <si>
     <t>watch</t>
@@ -614,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q41"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -622,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -686,10 +695,10 @@
         <v>1</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -704,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -733,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.9807692307692307</v>
+        <v>1</v>
       </c>
       <c r="C4">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="D4">
-        <v>102</v>
+        <v>6</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -751,10 +760,10 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>0.9444444444444444</v>
@@ -783,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.9666666666666667</v>
+        <v>0.9519230769230769</v>
       </c>
       <c r="C5">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="D5">
-        <v>29</v>
+        <v>99</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -801,10 +810,10 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K5">
         <v>0.9090909090909091</v>
@@ -833,13 +842,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9090909090909091</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D6">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -851,10 +860,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K6">
         <v>0.84</v>
@@ -883,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8888888888888888</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -901,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.8333333333333334</v>
+        <v>0.8</v>
       </c>
       <c r="L7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -925,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -933,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.8666666666666667</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="C8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -951,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.7017543859649122</v>
+        <v>0.7192982456140351</v>
       </c>
       <c r="L8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M8">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -975,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1004,7 +1013,7 @@
         <v>2</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K9">
         <v>0.7</v>
@@ -1033,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8421052631578947</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="C10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D10">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,19 +1060,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="K10">
-        <v>0.6</v>
+        <v>0.5666666666666667</v>
       </c>
       <c r="L10">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="M10">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1075,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1083,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8235294117647058</v>
+        <v>0.8</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1101,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.6</v>
+        <v>0.5517241379310345</v>
       </c>
       <c r="L11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="M11">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1125,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1133,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8181818181818182</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="C12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D12">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1154,16 +1163,16 @@
         <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.5517241379310345</v>
+        <v>0.5466666666666666</v>
       </c>
       <c r="L12">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="M12">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1175,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1183,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="C13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1204,16 +1213,16 @@
         <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.5</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1225,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1236,10 +1245,10 @@
         <v>0.75</v>
       </c>
       <c r="C14">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1251,19 +1260,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.3684210526315789</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="M14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1275,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1283,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.6666666666666666</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="C15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="D15">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1301,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.3541666666666667</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1325,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1333,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.6521739130434783</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D16">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1351,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.303030303030303</v>
+        <v>0.25</v>
       </c>
       <c r="L16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="M16">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1375,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1383,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.6428571428571429</v>
+        <v>0.6</v>
       </c>
       <c r="C17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1401,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.2962962962962963</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1425,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1433,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.625</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1451,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.2682926829268293</v>
+        <v>0.2203389830508475</v>
       </c>
       <c r="L18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="M18">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1475,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>30</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1483,13 +1492,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.625</v>
+        <v>0.5652173913043478</v>
       </c>
       <c r="C19">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>78</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1501,19 +1510,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.2222222222222222</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="M19">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1525,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>28</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1533,13 +1542,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.625</v>
+        <v>0.55</v>
       </c>
       <c r="C20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1551,19 +1560,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.2033898305084746</v>
+        <v>0.2121212121212121</v>
       </c>
       <c r="L20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="M20">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1575,7 +1584,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>47</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1583,13 +1592,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6086956521739131</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C21">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="D21">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1601,19 +1610,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.2</v>
+        <v>0.2083333333333333</v>
       </c>
       <c r="L21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="M21">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1625,7 +1634,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>52</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1633,13 +1642,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.6</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1651,19 +1660,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.1666666666666667</v>
+        <v>0.1951219512195122</v>
       </c>
       <c r="L22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M22">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1675,7 +1684,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>45</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1683,7 +1692,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.5833333333333334</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C23">
         <v>7</v>
@@ -1701,19 +1710,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.1639344262295082</v>
+        <v>0.1739130434782609</v>
       </c>
       <c r="L23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="M23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1725,7 +1734,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1733,13 +1742,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.574468085106383</v>
+        <v>0.5319148936170213</v>
       </c>
       <c r="C24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D24">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1751,19 +1760,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.122040072859745</v>
+        <v>0.15</v>
       </c>
       <c r="L24">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="M24">
-        <v>134</v>
+        <v>6</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1775,7 +1784,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>964</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1783,13 +1792,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5384615384615384</v>
+        <v>0.5</v>
       </c>
       <c r="C25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1804,16 +1813,16 @@
         <v>6</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.09187279151943463</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L25">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="M25">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1825,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>257</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1833,13 +1842,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="C26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1851,19 +1860,19 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.08450704225352113</v>
+        <v>0.1429872495446266</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>157</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1875,7 +1884,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>65</v>
+        <v>941</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1886,10 +1895,10 @@
         <v>0.5</v>
       </c>
       <c r="C27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1901,19 +1910,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.07222222222222222</v>
+        <v>0.1060070671378092</v>
       </c>
       <c r="L27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1925,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>501</v>
+        <v>253</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1936,10 +1945,10 @@
         <v>0.5</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1951,19 +1960,19 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K28">
-        <v>0.06984126984126984</v>
+        <v>0.09230769230769231</v>
       </c>
       <c r="L28">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="M28">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1975,7 +1984,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>293</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -1983,13 +1992,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.4615384615384616</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2001,13 +2010,13 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="K29">
-        <v>0.06315789473684211</v>
+        <v>0.0821917808219178</v>
       </c>
       <c r="L29">
         <v>6</v>
@@ -2025,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -2033,13 +2042,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.45</v>
+        <v>0.4761904761904762</v>
       </c>
       <c r="C30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2054,16 +2063,16 @@
         <v>11</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.05271084337349398</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="L30">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="M30">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2075,7 +2084,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>629</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2083,13 +2092,13 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4285714285714285</v>
+        <v>0.4583333333333333</v>
       </c>
       <c r="C31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -2101,13 +2110,13 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K31">
-        <v>0.05109489051094891</v>
+        <v>0.07368421052631578</v>
       </c>
       <c r="L31">
         <v>7</v>
@@ -2125,7 +2134,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>130</v>
+        <v>88</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2133,13 +2142,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4285714285714285</v>
+        <v>0.4347826086956522</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2151,19 +2160,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.04220779220779221</v>
+        <v>0.06569343065693431</v>
       </c>
       <c r="L32">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="M32">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2175,7 +2184,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>590</v>
+        <v>128</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2183,13 +2192,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.4230769230769231</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2201,31 +2210,31 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.02824207492795389</v>
+        <v>0.05565862708719851</v>
       </c>
       <c r="L33">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="M33">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="N33">
-        <v>0.98</v>
+        <v>0.97</v>
       </c>
       <c r="O33">
-        <v>0.02000000000000002</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P33" t="b">
         <v>1</v>
       </c>
       <c r="Q33">
-        <v>1686</v>
+        <v>509</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2233,13 +2242,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3928571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2251,19 +2260,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.02346041055718475</v>
+        <v>0.05079365079365079</v>
       </c>
       <c r="L34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M34">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2275,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>333</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2283,13 +2292,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.3714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D35">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -2301,19 +2310,19 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.02176696542893726</v>
+        <v>0.0466867469879518</v>
       </c>
       <c r="L35">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2325,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>764</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2333,7 +2342,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.3529411764705883</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
         <v>6</v>
@@ -2351,7 +2360,31 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>11</v>
+        <v>8</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K36">
+        <v>0.03571428571428571</v>
+      </c>
+      <c r="L36">
+        <v>22</v>
+      </c>
+      <c r="M36">
+        <v>22</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q36">
+        <v>594</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2359,7 +2392,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.3333333333333333</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -2377,7 +2410,31 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>0.02534562211981567</v>
+      </c>
+      <c r="L37">
+        <v>44</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>1692</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -2385,13 +2442,13 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.3157894736842105</v>
+        <v>0.3928571428571428</v>
       </c>
       <c r="C38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D38">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2403,7 +2460,31 @@
         <v>0</v>
       </c>
       <c r="H38">
-        <v>13</v>
+        <v>17</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K38">
+        <v>0.02346041055718475</v>
+      </c>
+      <c r="L38">
+        <v>8</v>
+      </c>
+      <c r="M38">
+        <v>8</v>
+      </c>
+      <c r="N38">
+        <v>1</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q38">
+        <v>333</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -2411,13 +2492,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.2916666666666667</v>
+        <v>0.3157894736842105</v>
       </c>
       <c r="C39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2429,7 +2510,31 @@
         <v>0</v>
       </c>
       <c r="H39">
+        <v>13</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K39">
+        <v>0.02051282051282051</v>
+      </c>
+      <c r="L39">
+        <v>16</v>
+      </c>
+      <c r="M39">
         <v>17</v>
+      </c>
+      <c r="N39">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="O39">
+        <v>0.06000000000000005</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>764</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -2437,13 +2542,13 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.2564102564102564</v>
+        <v>0.2307692307692308</v>
       </c>
       <c r="C40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D40">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2455,33 +2560,7 @@
         <v>0</v>
       </c>
       <c r="H40">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41">
-        <v>0.25</v>
-      </c>
-      <c r="C41">
-        <v>7</v>
-      </c>
-      <c r="D41">
-        <v>7</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>1</v>
-      </c>
-      <c r="G41" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41">
-        <v>21</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
